--- a/imageCreationExcel/back/0901-1/0901-1_19.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_19.xlsx
@@ -486,41 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5219506131781687</v>
+        <v>8.33548795742993</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27.15092142992104</v>
+        <v>1.090763572855697</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9839930919219229</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_J_gamma0.52_equalization27.0.jpg</t>
+          <t>1_C_brightness8.3_contrast1.1_sharpness0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -530,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6331855863944911</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>27.18181807949296</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F3" t="n">
-        <v>1.128278597896875</v>
+        <v>14.97404765650255</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9717335263250522</v>
+        <v>1.198131952964094</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_brightness27.0_contrast1.1_gamma0.97.jpg</t>
+          <t>2_J_gamma0.63_brightness15.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -572,39 +570,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.091854018919047</v>
+        <v>0.2353656133514662</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.047722358997258</v>
+        <v>29.60700098713389</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2313824763167053</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_gamma1.1_contrast1.0_sharpness0.23.jpg</t>
+          <t>3_Q_sharpness0.24_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -614,41 +614,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8840876718066855</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>24.15132876494613</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F5" t="n">
-        <v>0.501878131764332</v>
+        <v>18.25437301121348</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7916033329441087</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_brightness24.0_gamma0.5.jpg</t>
+          <t>4_I_contrast0.88_brightness18.0_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -658,16 +656,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2359715748438859</v>
+        <v>0.8022434400565834</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -675,24 +673,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5449515096231183</v>
+        <v>0.5513920405123226</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>19.87313881894051</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_sharpness0.24_gamma0.54.jpg</t>
+          <t>5_7_contrast0.8_gamma0.55_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -702,24 +698,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29.85878134055076</v>
+        <v>0.982496651835009</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0444048225298419</v>
+        <v>11.81907612982782</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -736,7 +732,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_J_brightness30.0_sharpness0.044.jpg</t>
+          <t>6_S_contrast0.98_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -746,41 +742,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8300153048955106</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.120861757838728</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>25.27516594101662</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6721688726125634</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H8" t="n">
+        <v>9.420886096526392</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_brightness25.0_gamma0.67.jpg</t>
+          <t>7_9_gamma0.83_contrast1.1_brightness9.4.jpg</t>
         </is>
       </c>
     </row>
@@ -790,7 +784,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,30 +793,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25.57665460771845</v>
+        <v>19.50367622741928</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2205378799307214</v>
+        <v>1.108262306185289</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.02640442768214</v>
+        <v>0.2162740741212541</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_3_brightness26.0_sharpness0.22_gamma1.0.jpg</t>
+          <t>8_Q_brightness20.0_contrast1.1_sharpness0.22.jpg</t>
         </is>
       </c>
     </row>
@@ -832,24 +826,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6390870044462138</v>
+        <v>0.6926747409752501</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5389117052794017</v>
+        <v>23.74845476569883</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -862,11 +856,11 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_brightness0.64_gamma0.54.jpg</t>
+          <t>9_7_gamma0.69_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -876,24 +870,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8022600647437439</v>
+        <v>2.383765640622806</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11.16067168566614</v>
+        <v>0.8623005890730452</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -906,11 +900,11 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_I_contrast0.8_brightness11.0.jpg</t>
+          <t>10_C_brightness2.4_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -920,41 +914,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24.74238045803445</v>
+        <v>0.6064728120416631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.027487550503344</v>
+        <v>0.9098552850958513</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>27.36824691172479</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_brightness25.0_gamma1.0.jpg</t>
+          <t>11_9_gamma0.61_contrast0.91_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -964,7 +956,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -973,30 +965,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1207403671206664</v>
+        <v>0.59087107537871</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9793600832313955</v>
+        <v>0.7015119265442143</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>31.29130980522029</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_sharpness0.12_contrast0.98_equalization31.0.jpg</t>
+          <t>12_E_sharpness0.59_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1006,41 +1000,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.131404671596108</v>
+        <v>0.6725870165016857</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7419042780319121</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>10.78116416201006</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H14" t="n">
+        <v>13.37707852737003</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_1_contrast1.1_equalization11.0.jpg</t>
+          <t>13_3_sharpness0.67_gamma0.74_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1050,39 +1042,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5039565713273264</v>
+        <v>1.040573589743448</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24.59183843627161</v>
+        <v>0.008341567680000384</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.4561281426641484</v>
+        <v>20.21765928227775</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_gamma0.5_brightness25.0_sharpness0.46.jpg</t>
+          <t>14_8_contrast1.0_sharpness0.0083_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,39 +1084,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.089353330975016</v>
+        <v>0.5395611048150631</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.570474869723439</v>
+        <v>1.011522111147998</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>18.52129356592476</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_contrast1.1_sharpness0.57_equalization19.0.jpg</t>
+          <t>15_C_sharpness0.54_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,39 +1128,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.687996286992221</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>13.18856484230617</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>6.136546582347993</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0.5835775864392549</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H17" t="n">
-        <v>1.021835034781367</v>
+        <v>1.027556106750708</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_brightness13.0_gamma0.58_contrast1.0.jpg</t>
+          <t>16_Q_sharpness0.69_brightness6.1_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,39 +1170,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>23.70456897571626</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0.6050518460237386</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F18" t="n">
-        <v>15.67308973625795</v>
+        <v>0.748874610162062</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.8382572173782239</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_P_gamma0.61_brightness16.0_sharpness0.84.jpg</t>
+          <t>17_8_brightness24.0_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1218,16 +1214,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7575377633664521</v>
+        <v>0.3663705303204822</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1235,7 +1231,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28.85707282877122</v>
+        <v>12.30005951397222</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1248,11 +1244,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_3_gamma0.76_equalization29.0.jpg</t>
+          <t>18_7_sharpness0.37_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1262,24 +1258,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4486006953422231</v>
+        <v>0.9980366797706072</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7350211534266613</v>
+        <v>19.81352553292614</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1296,7 +1292,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_Q_sharpness0.45_gamma0.74.jpg</t>
+          <t>19_T_contrast1.0_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1306,39 +1302,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.110467434751441</v>
+        <v>0.2664286068891479</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6686058449826279</v>
+        <v>10.12794457645144</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>22.53468022847901</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_contrast1.1_sharpness0.67_equalization23.0.jpg</t>
+          <t>20_1_sharpness0.27_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1357,15 +1355,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2441324102819462</v>
+        <v>0.3014334224666798</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7177550935185383</v>
+        <v>1.114926193245692</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1373,14 +1371,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10.80495186423524</v>
+        <v>23.63582353006038</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_B_sharpness0.24_gamma0.72_equalization11.0.jpg</t>
+          <t>21_T_sharpness0.3_contrast1.1_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,39 +1388,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.13889307944023</v>
+        <v>0.2380863425574631</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1269994176381031</v>
+        <v>1.074434139722759</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6.892637707299658</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_0_contrast1.1_sharpness0.13_equalization6.9.jpg</t>
+          <t>22_2_sharpness0.24_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1432,39 +1432,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14.68201763878993</v>
+        <v>0.8547468565351743</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.2955610981614473</v>
+        <v>0.7482065576196752</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.5376400546532708</v>
+        <v>12.01416922632837</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_brightness15.0_sharpness0.3_gamma0.54.jpg</t>
+          <t>23_9_contrast0.85_gamma0.75_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1474,16 +1474,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.93039828442241</v>
+        <v>0.9001746738327612</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6409194622880463</v>
+        <v>0.5431534966389796</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.184443686003689</v>
+        <v>17.00238055219619</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_brightness13.0_sharpness0.64_contrast1.2.jpg</t>
+          <t>24_2_contrast0.9_sharpness0.54_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1516,39 +1516,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.074564239172044</v>
+        <v>24.2230138386954</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6830874067857647</v>
+        <v>0.8901265599302766</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.05357749327226657</v>
+        <v>0.9466283187378791</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_contrast1.1_gamma0.68_brightness0.054.jpg</t>
+          <t>25_B_brightness24.0_contrast0.89_sharpness0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1558,16 +1558,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.068308118707957</v>
+        <v>0.3425483020552434</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>29.51198335868688</v>
+        <v>24.92061359015388</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_gamma1.1_equalization30.0.jpg</t>
+          <t>26_Q_sharpness0.34_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1602,24 +1602,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9451885178672039</v>
+        <v>0.5229158709650674</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07640496099032557</v>
+        <v>0.8989558643790567</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1627,14 +1627,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>27.38027392405566</v>
+        <v>19.94176872057733</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_contrast0.95_sharpness0.076_equalization27.0.jpg</t>
+          <t>27_I_sharpness0.52_gamma0.9_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1653,32 +1653,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7707608935820798</v>
+        <v>0.9141876338596722</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15.59581450843651</v>
+        <v>0.5474374290286472</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>14.02053891589055</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_C_sharpness0.77_equalization16.0.jpg</t>
+          <t>28_7_sharpness0.91_gamma0.55_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1688,16 +1686,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29.92425740113873</v>
+        <v>0.5684943917814909</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1705,22 +1703,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.100163036120466</v>
+        <v>1.035513154418369</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>0.887993113504455</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_7_brightness30.0_contrast1.1_sharpness0.89.jpg</t>
+          <t>29_C_gamma0.57_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1730,16 +1730,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6695263616546355</v>
+        <v>2.743707775766064</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8290313993712979</v>
+        <v>1.011166070250423</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1760,11 +1760,11 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_E_gamma0.67_contrast0.83.jpg</t>
+          <t>30_C_brightness2.7_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1774,16 +1774,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9161276838439025</v>
+        <v>0.9117453519934541</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>17.80899001295338</v>
+        <v>5.016790431065889</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1804,11 +1804,11 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_I_gamma0.92_equalization18.0.jpg</t>
+          <t>31_C_contrast0.91_equalization5.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1818,39 +1818,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.102856357152789</v>
+        <v>0.6640861830127978</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9400402088650056</v>
+        <v>24.57564890460359</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>28.47658323463312</v>
+        <v>1.017755041980181</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_contrast1.1_gamma0.94_equalization28.0.jpg</t>
+          <t>32_9_gamma0.66_brightness25.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1860,24 +1860,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7498737688546044</v>
+        <v>13.05924410245295</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>30.69275433389641</v>
+        <v>0.6005832990141569</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_sharpness0.75_equalization31.0.jpg</t>
+          <t>33_3_brightness13.0_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1913,32 +1913,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.023923921039952</v>
+        <v>1.071511788179487</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0517487623312114</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>7.233260620315645</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H35" t="n">
+        <v>29.95034411393431</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_contrast1.0_equalization7.2.jpg</t>
+          <t>34_7_contrast1.1_sharpness0.052_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1946,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1957,15 +1955,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>29.51043895976342</v>
+        <v>17.04209553190168</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3204866459298258</v>
+        <v>0.6012171531022312</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1978,11 +1976,11 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_brightness30.0_sharpness0.32.jpg</t>
+          <t>35_E_brightness17.0_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1990,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2001,15 +1999,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7276316385160415</v>
+        <v>0.4112221374262071</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>31.28591055333291</v>
+        <v>0.6102237698963017</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2026,7 +2024,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_T_sharpness0.73_equalization31.0.jpg</t>
+          <t>36_1_sharpness0.41_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2034,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2045,15 +2043,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7174582909230079</v>
+        <v>1.0318154827713</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>27.58025661610454</v>
+        <v>0.8359088585578131</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_J_gamma0.72_equalization28.0.jpg</t>
+          <t>37_9_gamma1.0_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2078,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2089,7 +2087,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22.81168368646049</v>
+        <v>8.905781497438443</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2097,24 +2095,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8573158235805642</v>
+        <v>1.11002549918183</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6148495529751462</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_brightness23.0_contrast0.86.jpg</t>
+          <t>38_B_brightness8.9_contrast1.1_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2120,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8294482102558182</v>
+        <v>0.5905158862857072</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.4836971808267329</v>
+        <v>21.53379766517702</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2158,7 +2154,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_contrast0.83_sharpness0.48.jpg</t>
+          <t>39_P_sharpness0.59_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2168,41 +2164,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8943271425344655</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0.6408078485655988</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>1.027057718707973</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>4.345509075250379</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H41" t="n">
+        <v>28.78945070942933</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_gamma0.64_brightness4.3.jpg</t>
+          <t>40_T_contrast0.89_gamma1.0_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2212,39 +2206,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1.121431970983922</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0.5973662987840044</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>0.8774714693009952</v>
+        <v>0.6044009721252771</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>31.83483616897864</v>
+        <v>0.09068539401061038</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_1_gamma0.6_sharpness0.88_equalization32.0.jpg</t>
+          <t>41_J_contrast1.1_gamma0.6_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -2259,19 +2253,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9571952148246656</v>
+        <v>1.03955763521226</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.593930509413427</v>
+        <v>0.4149823718910551</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2279,14 +2273,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>16.6309728279471</v>
+        <v>7.527307896749006</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_sharpness0.96_gamma0.59_equalization17.0.jpg</t>
+          <t>42_S_contrast1.0_sharpness0.41_equalization7.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2296,39 +2290,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.044049582064609</v>
+        <v>0.7991517645664493</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9308573371655267</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>24.16272338866942</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H44" t="n">
-        <v>0.923978259305847</v>
+        <v>5.072126092623011</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_contrast1.0_brightness24.0_gamma0.92.jpg</t>
+          <t>43_P_sharpness0.8_contrast0.93_brightness5.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2338,39 +2332,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1275066105518549</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0.8768336443806735</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F45" t="n">
-        <v>14.04907049085585</v>
+        <v>0.9651977836251482</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.8204768671080624</v>
+        <v>23.42315220515814</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_gamma0.88_brightness14.0_contrast0.82.jpg</t>
+          <t>44_B_sharpness0.13_gamma0.97_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2380,39 +2374,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.4203763822996122</v>
+        <v>1.00787513161168</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.053372019919283</v>
+        <v>0.06518340878708373</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.653531903314335</v>
+        <v>10.25916256608106</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_0_sharpness0.42_contrast1.1_gamma0.65.jpg</t>
+          <t>45_I_gamma1.0_sharpness0.065_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2422,24 +2416,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.852350280243333</v>
+        <v>8.212011706889223</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8250723995337651</v>
+        <v>0.9747640401893919</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2452,11 +2446,11 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_gamma0.85_contrast0.83.jpg</t>
+          <t>46_3_brightness8.2_sharpness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -2466,24 +2460,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5578962845924897</v>
+        <v>10.14919472206449</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.22986041439768</v>
+        <v>0.8992154240873573</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2500,7 +2494,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_T_sharpness0.56_brightness23.0.jpg</t>
+          <t>47_8_brightness10.0_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2504,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2519,7 +2513,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26.42128534738163</v>
+        <v>15.5460284945104</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2527,22 +2521,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8025796996555787</v>
+        <v>0.3378188577655241</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1.026027221508388</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_I_brightness26.0_sharpness0.8_contrast1.0.jpg</t>
+          <t>48_8_brightness16.0_sharpness0.34.jpg</t>
         </is>
       </c>
     </row>
